--- a/biology/Botanique/Lagerstroemia_indica/Lagerstroemia_indica.xlsx
+++ b/biology/Botanique/Lagerstroemia_indica/Lagerstroemia_indica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lagerstroemia indica, communément appelé Lilas d'été, Lilas d'Inde ou encore Myrte de crêpe, est une espèce d'arbres ornementaux de la famille des Lythraceae Elle est originaire de Chine et du Japon.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lagerstroemia indica se présente le plus souvent sous forme d'un arbuste multi-troncs à feuilles caduques pouvant atteindre 6 m de haut pour autant de diamètre.
 Son écorce beige marbré de gris rose et sa belle floraison tardive en font une superbe plante ornementale pour égayer la fin de l'été et le début de l'automne.
@@ -546,7 +560,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il supporte les gelées et préfère le plein soleil sur sol drainant riche et humide.
 Le Lilas d'Inde se multiplie bien par bouturage juste après la floraison, de préférence dans un substrat sablonneux.
